--- a/curso-completo/excel_365_do_zero_ao_avancado/2.basico_introducao_excel/9.criando_tabelas/05+-+Criando+Primeira+Tabela.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/2.basico_introducao_excel/9.criando_tabelas/05+-+Criando+Primeira+Tabela.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\2.basico_introducao_excel\9.criando_tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1FC020-C0F5-4EBE-A007-48EA474C5863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4873FA-E5BA-474F-8C75-19EDE27D1EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Como Criar" sheetId="7" r:id="rId1"/>
@@ -27,20 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
   <si>
     <t>Material Curso de Excel do Básico ao Expert 2022</t>
   </si>
@@ -376,12 +368,44 @@
   <si>
     <t>ALT + ENTER (Windows)</t>
   </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t>Despesa</t>
+  </si>
+  <si>
+    <t>% Lucro</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>Mês 
+Despesa</t>
+  </si>
+  <si>
+    <t>Material 
+Comprado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,8 +452,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,8 +497,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -727,12 +764,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -800,12 +949,355 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -816,6 +1308,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{75ACC3AA-07E4-4BFA-9D06-251BFE529F4D}" name="Tabela1" displayName="Tabela1" ref="B8:F17" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13" headerRowCellStyle="Moeda">
+  <autoFilter ref="B8:F17" xr:uid="{75ACC3AA-07E4-4BFA-9D06-251BFE529F4D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{96CB32E8-C6CD-4486-80FC-4587C80F0A64}" name="Código" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E6153DE2-3822-4DDF-AD99-6181FADD2442}" name="Descrição" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{C613DDB0-C1C7-4730-96BB-83FA872AB60B}" name="Custo" dataDxfId="10" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{C641128F-09E5-46AA-B13F-3BAFAC6B06A8}" name="Despesa" dataDxfId="9" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{426966A5-014D-4B60-812B-332FAC992EA4}" name="% Lucro" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6AFAA201-476E-4D72-BE7B-53473FC7E26E}" name="Tabela2" displayName="Tabela2" ref="B9:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E1715A26-3EA2-471D-A4CF-75A2A99AF2E4}" name="Coluna1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{AC0389A0-0F6C-4EF7-9897-5D31F6A82A17}" name="Coluna2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{1BD2A7AE-A64B-4E8E-8A38-AA60DEF70021}" name="Coluna3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{C1DD2ED4-168A-4DC0-BDA1-054D5034EC2A}" name="Coluna4" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1117,19 +1635,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD39A589-73E2-4881-BCBB-16FA9470EA13}">
   <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>86</v>
       </c>
@@ -1139,8 +1657,8 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
     </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>82</v>
       </c>
@@ -1160,7 +1678,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
         <v>1</v>
       </c>
@@ -1180,7 +1698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="11">
         <v>2</v>
       </c>
@@ -1200,7 +1718,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>3</v>
       </c>
@@ -1220,7 +1738,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="11">
         <v>4</v>
       </c>
@@ -1240,7 +1758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>5</v>
       </c>
@@ -1260,7 +1778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="11">
         <v>6</v>
       </c>
@@ -1280,7 +1798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>7</v>
       </c>
@@ -1300,7 +1818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="11">
         <v>8</v>
       </c>
@@ -1320,7 +1838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
         <v>9</v>
       </c>
@@ -1340,7 +1858,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="11">
         <v>10</v>
       </c>
@@ -1360,7 +1878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>11</v>
       </c>
@@ -1380,7 +1898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>12</v>
       </c>
@@ -1400,7 +1918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>13</v>
       </c>
@@ -1420,7 +1938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>14</v>
       </c>
@@ -1440,7 +1958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8">
         <v>15</v>
       </c>
@@ -1477,29 +1995,29 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>87</v>
       </c>
@@ -1552,7 +2070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="C5" s="24" t="s">
         <v>78</v>
@@ -1603,7 +2121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="C6" s="24" t="s">
         <v>73</v>
@@ -1654,7 +2172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="C7" s="24" t="s">
         <v>69</v>
@@ -1705,7 +2223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="C8" s="24" t="s">
         <v>64</v>
@@ -1756,7 +2274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31"/>
       <c r="C9" s="21" t="s">
         <v>59</v>
@@ -1807,27 +2325,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
     </row>
@@ -1841,35 +2359,143 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5155D-10BE-4AB6-89E0-20C2DF17DBAD}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="35">
+        <v>1</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="34">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="34">
+        <v>350</v>
+      </c>
+      <c r="F9" s="36">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="35">
+        <v>2</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="37"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="35">
+        <v>3</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="35">
+        <v>4</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="35">
+        <v>5</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="37"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="35">
+        <v>6</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="35">
+        <v>7</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="37"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="35">
+        <v>8</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="37"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="42">
+        <v>9</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1877,40 +2503,106 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699CBE8C-4961-4E58-BA5A-E22BABED5918}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="35"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="35"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="35"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="35"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="35"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="35"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="37"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="35"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="37"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1918,6 +2610,9 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1925,25 +2620,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB28F29-0FCA-4863-B0BA-302D7EEE57E7}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1951,7 +2646,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -1976,26 +2671,26 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -2017,26 +2712,26 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -2058,29 +2753,29 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2088,7 +2783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2096,18 +2791,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD2"/>
